--- a/PythonHomework/D01/testExcel.xlsx
+++ b/PythonHomework/D01/testExcel.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GITTEST\TEST1\PythonHomework\D01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
   </bookViews>
   <sheets>
-    <sheet name="My Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="my sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="homework99" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="My Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="my sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="homework99" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>1x1=1</t>
   </si>
@@ -151,25 +156,35 @@
   </si>
   <si>
     <t>9x9=81</t>
+  </si>
+  <si>
+    <t>asd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -185,15 +200,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -481,3273 +505,3264 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A3:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="1:4">
-      <c r="A3" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="D6" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D6">
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1">
         <v>2</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>3</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C1">
         <v>4</v>
       </c>
-      <c r="D1" t="n">
+      <c r="D1">
         <v>5</v>
       </c>
-      <c r="E1" t="n">
+      <c r="E1">
         <v>6</v>
       </c>
-      <c r="F1" t="n">
+      <c r="F1">
         <v>7</v>
       </c>
-      <c r="G1" t="n">
+      <c r="G1">
         <v>8</v>
       </c>
-      <c r="H1" t="n">
+      <c r="H1">
         <v>9</v>
       </c>
-      <c r="I1" t="n">
+      <c r="I1">
         <v>10</v>
       </c>
-      <c r="J1" t="n">
+      <c r="J1">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>6</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>7</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>8</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>9</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>11</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="n">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>7</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>8</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>9</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>11</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>12</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="n">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>5</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>6</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>8</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>9</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>10</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>11</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>12</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>13</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="n">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5">
         <v>6</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>7</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>9</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>10</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>11</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>12</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>14</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="n">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>7</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>8</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>10</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>11</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>12</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>13</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>14</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>15</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="n">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>8</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>9</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>11</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>12</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>13</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>14</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>15</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>16</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="n">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>9</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>11</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>12</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>13</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>14</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>15</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>16</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>17</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="n">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
         <v>10</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>11</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>12</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>13</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>14</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>15</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>16</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>17</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>18</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10">
         <v>11</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>12</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>13</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>14</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>15</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>16</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>17</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>18</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>19</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="n">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11">
         <v>12</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>13</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>14</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>15</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>16</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>17</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>18</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>19</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>20</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="n">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>13</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>14</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>15</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>16</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>17</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>18</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>19</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>20</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>21</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="n">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13">
         <v>14</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>15</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>16</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>17</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>18</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>19</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>20</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>21</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>22</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="n">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14">
         <v>15</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>16</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>17</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>18</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>19</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>20</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>21</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>22</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>23</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="n">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15">
         <v>16</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>17</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>18</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>19</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>20</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>21</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>22</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>23</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>24</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="n">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16">
         <v>17</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>18</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>19</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>20</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>21</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>22</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>23</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>24</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>25</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="n">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17">
         <v>18</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>19</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>20</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>21</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>22</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>23</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>24</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>25</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>26</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="n">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18">
         <v>19</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>20</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>21</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>22</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>23</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>24</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>25</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>26</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>27</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="n">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>21</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>22</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>23</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>24</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>25</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>26</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>27</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>28</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="n">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20">
         <v>21</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>22</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>23</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>24</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>25</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>26</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>27</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>28</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>29</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="n">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21">
         <v>22</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>23</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>24</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>25</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>26</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>27</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>28</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>29</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>30</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="n">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22">
         <v>23</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>24</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>25</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>26</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>27</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>28</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>29</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>30</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>31</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="n">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23">
         <v>24</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>25</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>26</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>27</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>28</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>29</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>30</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>31</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>32</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="n">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24">
         <v>25</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>26</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>27</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>28</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>29</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>30</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>31</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>32</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>33</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="n">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25">
         <v>26</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>27</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>28</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>29</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>30</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>31</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>32</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>33</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>34</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="n">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26">
         <v>27</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>28</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>29</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>30</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>31</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>32</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>33</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>34</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>35</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="n">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27">
         <v>28</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>29</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>30</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>31</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>32</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>33</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>34</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>35</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>36</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="n">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28">
         <v>29</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>30</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>31</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>32</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>33</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>34</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>35</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>36</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>37</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="n">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29">
         <v>30</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>31</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>32</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>33</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>34</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>35</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>36</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>37</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>38</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="n">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30">
         <v>31</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>32</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>33</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>34</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>35</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>36</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>37</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>38</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>39</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="n">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31">
         <v>32</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>33</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>34</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>35</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>36</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>37</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>38</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>39</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>40</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="n">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32">
         <v>33</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>34</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>35</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>36</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>37</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>38</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>39</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>40</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>41</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="n">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33">
         <v>34</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>35</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>36</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>37</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>38</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>39</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>40</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>41</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>42</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" t="n">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34">
         <v>35</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>36</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>37</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>38</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>39</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>40</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>41</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>42</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>43</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="n">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35">
         <v>36</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>37</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>38</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>39</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>40</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>41</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>42</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>43</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>44</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="n">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36">
         <v>37</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>38</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>39</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>40</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>41</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>42</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>43</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>44</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>45</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="n">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37">
         <v>38</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>39</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>40</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>41</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>42</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>43</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>44</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>45</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>46</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" t="n">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38">
         <v>39</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>40</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>41</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>42</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>43</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>44</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>45</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>46</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>47</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="n">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39">
         <v>40</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>41</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>42</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>43</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>44</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>45</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>46</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>47</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>48</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="n">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40">
         <v>41</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>42</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>43</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>44</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>45</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>46</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>47</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>48</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>49</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="n">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41">
         <v>42</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>43</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>44</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>45</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>46</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>47</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>48</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>49</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>50</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" t="n">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42">
         <v>43</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>44</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>45</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>46</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>47</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>48</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>49</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>50</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>51</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="n">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43">
         <v>44</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>45</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>46</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>47</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>48</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>49</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>50</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>51</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>52</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" t="n">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44">
         <v>45</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>46</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>47</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>48</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>49</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>50</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>51</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>52</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>53</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" t="n">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45">
         <v>46</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>47</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>48</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>49</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>50</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>51</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>52</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>53</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>54</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" t="n">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46">
         <v>47</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>48</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>49</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>50</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>51</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>52</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>53</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>54</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>55</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" t="n">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47">
         <v>48</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>49</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>50</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>51</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>52</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>53</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>54</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>55</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>56</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" t="n">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48">
         <v>49</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>50</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>51</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>52</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>53</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>54</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>55</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>56</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>57</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" t="n">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49">
         <v>50</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>51</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>52</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>53</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>54</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>55</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>56</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>57</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>58</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" t="n">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50">
         <v>51</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>52</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>53</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>54</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>55</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>56</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>57</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>58</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>59</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" t="n">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51">
         <v>52</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>53</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>54</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>55</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>56</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>57</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>58</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>59</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>60</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" t="n">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A52">
         <v>53</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>54</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>55</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>56</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>57</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>58</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>59</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>60</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>61</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" t="n">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A53">
         <v>54</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>55</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>56</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>57</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>58</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>59</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>60</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>61</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>62</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" t="n">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A54">
         <v>55</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>56</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>57</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>58</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>59</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>60</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>61</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>62</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>63</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" t="n">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A55">
         <v>56</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>57</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>58</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>59</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>60</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>61</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>62</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>63</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>64</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" t="n">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A56">
         <v>57</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>58</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>59</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>60</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>61</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>62</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>63</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>64</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>65</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" t="n">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A57">
         <v>58</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>59</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>60</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>61</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>62</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>63</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>64</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>65</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>66</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" t="n">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A58">
         <v>59</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>60</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>61</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>62</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>63</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>64</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>65</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>66</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58">
         <v>67</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58">
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" t="n">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59">
         <v>60</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>61</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>62</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>63</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>64</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>65</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>66</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>67</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59">
         <v>68</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" t="n">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A60">
         <v>61</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>62</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>63</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>64</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>65</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>66</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>67</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>68</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>69</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60">
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" t="n">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A61">
         <v>62</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>63</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>64</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>65</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>66</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>67</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>68</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>69</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>70</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61">
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" t="n">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A62">
         <v>63</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>64</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>65</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>66</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>67</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>68</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>69</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>70</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>71</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62">
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
-      <c r="A63" t="n">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A63">
         <v>64</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>65</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>66</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>67</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>68</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>69</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>70</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>71</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>72</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
-      <c r="A64" t="n">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A64">
         <v>65</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>66</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>67</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>68</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>69</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>70</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>71</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>72</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64">
         <v>73</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64">
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
-      <c r="A65" t="n">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A65">
         <v>66</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>67</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>68</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>69</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>70</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>71</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>72</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>73</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65">
         <v>74</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65">
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
-      <c r="A66" t="n">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A66">
         <v>67</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>68</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>69</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>70</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>71</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>72</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>73</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>74</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66">
         <v>75</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J66">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
-      <c r="A67" t="n">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A67">
         <v>68</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>69</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>70</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>71</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>72</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>73</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>74</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>75</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67">
         <v>76</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67">
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
-      <c r="A68" t="n">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A68">
         <v>69</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>70</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>71</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>72</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>73</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>74</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>75</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>76</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68">
         <v>77</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68">
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
-      <c r="A69" t="n">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A69">
         <v>70</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>71</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>72</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>73</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>74</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>75</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>76</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>77</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69">
         <v>78</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J69">
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
-      <c r="A70" t="n">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A70">
         <v>71</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>72</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>73</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>74</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>75</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>76</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>77</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>78</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70">
         <v>79</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J70">
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
-      <c r="A71" t="n">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A71">
         <v>72</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>73</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>74</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>75</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>76</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>77</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>78</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>79</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71">
         <v>80</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71">
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
-      <c r="A72" t="n">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A72">
         <v>73</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>74</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>75</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>76</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>77</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>78</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>79</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>80</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72">
         <v>81</v>
       </c>
-      <c r="J72" t="n">
+      <c r="J72">
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
-      <c r="A73" t="n">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A73">
         <v>74</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>75</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>76</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>77</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>78</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>79</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>80</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>81</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73">
         <v>82</v>
       </c>
-      <c r="J73" t="n">
+      <c r="J73">
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
-      <c r="A74" t="n">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A74">
         <v>75</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>76</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>77</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>78</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>79</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>80</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>81</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>82</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I74">
         <v>83</v>
       </c>
-      <c r="J74" t="n">
+      <c r="J74">
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
-      <c r="A75" t="n">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A75">
         <v>76</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>77</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>78</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>79</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>80</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>81</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>82</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>83</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75">
         <v>84</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75">
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
-      <c r="A76" t="n">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A76">
         <v>77</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>78</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>79</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>80</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>81</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>82</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>83</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>84</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76">
         <v>85</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76">
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
-      <c r="A77" t="n">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A77">
         <v>78</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>79</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>80</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>81</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>82</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>83</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>84</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77">
         <v>85</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I77">
         <v>86</v>
       </c>
-      <c r="J77" t="n">
+      <c r="J77">
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
-      <c r="A78" t="n">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A78">
         <v>79</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>80</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>81</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>82</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>83</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>84</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>85</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78">
         <v>86</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I78">
         <v>87</v>
       </c>
-      <c r="J78" t="n">
+      <c r="J78">
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
-      <c r="A79" t="n">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A79">
         <v>80</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>81</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>82</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>83</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>84</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>85</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>86</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>87</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I79">
         <v>88</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J79">
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
-      <c r="A80" t="n">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A80">
         <v>81</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>82</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>83</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>84</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>85</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>86</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>87</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>88</v>
       </c>
-      <c r="I80" t="n">
+      <c r="I80">
         <v>89</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J80">
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
-      <c r="A81" t="n">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A81">
         <v>82</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>83</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>84</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>85</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>86</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>87</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>88</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81">
         <v>89</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I81">
         <v>90</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J81">
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
-      <c r="A82" t="n">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A82">
         <v>83</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>84</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>85</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>86</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>87</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>88</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>89</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>90</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I82">
         <v>91</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82">
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
-      <c r="A83" t="n">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A83">
         <v>84</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>85</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>86</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>87</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>88</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>89</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>90</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>91</v>
       </c>
-      <c r="I83" t="n">
+      <c r="I83">
         <v>92</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J83">
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
-      <c r="A84" t="n">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A84">
         <v>85</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>86</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>87</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>88</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>89</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>90</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>91</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>92</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I84">
         <v>93</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J84">
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
-      <c r="A85" t="n">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A85">
         <v>86</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>87</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>88</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>89</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>90</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>91</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>92</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85">
         <v>93</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I85">
         <v>94</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J85">
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
-      <c r="A86" t="n">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A86">
         <v>87</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>88</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>89</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>90</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>91</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>92</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>93</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86">
         <v>94</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I86">
         <v>95</v>
       </c>
-      <c r="J86" t="n">
+      <c r="J86">
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
-      <c r="A87" t="n">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A87">
         <v>88</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>89</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>90</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>91</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>92</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>93</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>94</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87">
         <v>95</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I87">
         <v>96</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J87">
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
-      <c r="A88" t="n">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A88">
         <v>89</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>90</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>91</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>92</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>93</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>94</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>95</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88">
         <v>96</v>
       </c>
-      <c r="I88" t="n">
+      <c r="I88">
         <v>97</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88">
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
-      <c r="A89" t="n">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A89">
         <v>90</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>91</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>92</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>93</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>94</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>95</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>96</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89">
         <v>97</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I89">
         <v>98</v>
       </c>
-      <c r="J89" t="n">
+      <c r="J89">
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
-      <c r="A90" t="n">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A90">
         <v>91</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>92</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>93</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>94</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>95</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>96</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>97</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90">
         <v>98</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I90">
         <v>99</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J90">
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
-      <c r="A91" t="n">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A91">
         <v>92</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>93</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>94</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>95</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>96</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>97</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>98</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91">
         <v>99</v>
       </c>
-      <c r="I91" t="n">
+      <c r="I91">
         <v>100</v>
       </c>
-      <c r="J91" t="n">
+      <c r="J91">
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
-      <c r="A92" t="n">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A92">
         <v>93</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>94</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>95</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>96</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>97</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>98</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>99</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92">
         <v>100</v>
       </c>
-      <c r="I92" t="n">
+      <c r="I92">
         <v>101</v>
       </c>
-      <c r="J92" t="n">
+      <c r="J92">
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
-      <c r="A93" t="n">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A93">
         <v>94</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>95</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>96</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>97</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>98</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>99</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>100</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H93">
         <v>101</v>
       </c>
-      <c r="I93" t="n">
+      <c r="I93">
         <v>102</v>
       </c>
-      <c r="J93" t="n">
+      <c r="J93">
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
-      <c r="A94" t="n">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A94">
         <v>95</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>96</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>97</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>98</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>99</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>100</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>101</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94">
         <v>102</v>
       </c>
-      <c r="I94" t="n">
+      <c r="I94">
         <v>103</v>
       </c>
-      <c r="J94" t="n">
+      <c r="J94">
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
-      <c r="A95" t="n">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A95">
         <v>96</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>97</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>98</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>99</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>100</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>101</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>102</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H95">
         <v>103</v>
       </c>
-      <c r="I95" t="n">
+      <c r="I95">
         <v>104</v>
       </c>
-      <c r="J95" t="n">
+      <c r="J95">
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
-      <c r="A96" t="n">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A96">
         <v>97</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>98</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>99</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>100</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>101</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>102</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>103</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96">
         <v>104</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I96">
         <v>105</v>
       </c>
-      <c r="J96" t="n">
+      <c r="J96">
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
-      <c r="A97" t="n">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A97">
         <v>98</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>99</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>100</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>101</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>102</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>103</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>104</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97">
         <v>105</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I97">
         <v>106</v>
       </c>
-      <c r="J97" t="n">
+      <c r="J97">
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
-      <c r="A98" t="n">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A98">
         <v>99</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>100</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>101</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>102</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>103</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>104</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>105</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H98">
         <v>106</v>
       </c>
-      <c r="I98" t="n">
+      <c r="I98">
         <v>107</v>
       </c>
-      <c r="J98" t="n">
+      <c r="J98">
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
-      <c r="A99" t="n">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A99">
         <v>100</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>101</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>102</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>103</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>104</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>105</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>106</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H99">
         <v>107</v>
       </c>
-      <c r="I99" t="n">
+      <c r="I99">
         <v>108</v>
       </c>
-      <c r="J99" t="n">
+      <c r="J99">
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
-      <c r="A100" t="n">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A100">
         <v>101</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>102</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>103</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>104</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>105</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>106</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>107</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H100">
         <v>108</v>
       </c>
-      <c r="I100" t="n">
+      <c r="I100">
         <v>109</v>
       </c>
-      <c r="J100" t="n">
+      <c r="J100">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="1:12">
+    <row r="3" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D4" t="s">
         <v>1</v>
       </c>
@@ -3755,7 +3770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D5" t="s">
         <v>3</v>
       </c>
@@ -3766,7 +3781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
         <v>6</v>
       </c>
@@ -3780,7 +3795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
         <v>10</v>
       </c>
@@ -3797,7 +3812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
         <v>15</v>
       </c>
@@ -3817,7 +3832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
         <v>21</v>
       </c>
@@ -3840,7 +3855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
         <v>28</v>
       </c>
@@ -3866,7 +3881,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
         <v>36</v>
       </c>
@@ -3896,6 +3911,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>